--- a/project_data.xlsx
+++ b/project_data.xlsx
@@ -1,338 +1,313 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Ikastekoa\5\NAEX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osanz\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783093E6-153E-4D4E-B682-14E57ECE3571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33943A68-FAC0-474C-AE3C-0EA46F51ED1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
-  <si>
-    <t>32,4,8,1,B,Double,45,High,High,,,</t>
-  </si>
-  <si>
-    <t>32,4,8,2,B,Double,45,High,High,,,</t>
-  </si>
-  <si>
-    <t>32,4,8,3,B,Double,45,High,High,,,</t>
-  </si>
-  <si>
-    <t>B,Normal,45,High,Low,23,1,1,1,442,119,</t>
-  </si>
-  <si>
-    <t>B,Normal,45,High,Low,23,1,1,2,171.76,160,</t>
-  </si>
-  <si>
-    <t>B,Normal,45,High,Low,23,1,1,3,395.82,116,</t>
-  </si>
-  <si>
-    <t>A,Double,45,High,Low,15,1,2,2,509.902,12,</t>
-  </si>
-  <si>
-    <t>A,Double,45,High,Low,15,1,2,3,241.197,3,</t>
-  </si>
-  <si>
-    <t>A,Double,0,High,High,12,1,3,1,529.0293,9,</t>
-  </si>
-  <si>
-    <t>A,Double,0,High,High,12,1,3,2,543.720591,20,</t>
-  </si>
-  <si>
-    <t>A,Double,0,High,High,12,1,3,3,520.5689,24,</t>
-  </si>
-  <si>
-    <t>B,Double,0,High,Low,27,1,4,1,304.4208,2,</t>
-  </si>
-  <si>
-    <t>B,Double,0,High,Low,27,1,4,2,164.1463,30,</t>
-  </si>
-  <si>
-    <t>B,Double,0,High,Low,27,1,4,3,124.0645,16,</t>
-  </si>
-  <si>
-    <t>A,Double,0,High,Low,11,1,5,1,356.2022,33,</t>
-  </si>
-  <si>
-    <t>A,Double,0,High,Low,11,1,5,2,488.2622,12,</t>
-  </si>
-  <si>
-    <t>A,Double,0,High,Low,11,1,5,3,379.0514,6,</t>
-  </si>
-  <si>
-    <t>B,Normal,0,Low,Low,17,1,6,1,260.2768,30,</t>
-  </si>
-  <si>
-    <t>B,Normal,0,Low,Low,17,1,6,2,229.0581,58,</t>
-  </si>
-  <si>
-    <t>B,Normal,0,Low,Low,17,1,6,3,318.8479,4,</t>
-  </si>
-  <si>
-    <t>A,Normal,0,High,Low,3,1,7,1,360.1111,9,</t>
-  </si>
-  <si>
-    <t>A,Normal,0,High,Low,3,1,7,2,561.7259,3,</t>
-  </si>
-  <si>
-    <t>A,Normal,0,High,Low,3,1,7,3,402.6313,16,</t>
-  </si>
-  <si>
-    <t>B,Double,45,Low,Low,29,1,8,1,169.7999,8</t>
-  </si>
-  <si>
-    <t>B,Double,45,Low,Low,29,1,8,2,112.0714,2,</t>
-  </si>
-  <si>
-    <t>B,Double,45,Low,Low,29,1,8,3,101.1929,10,</t>
-  </si>
-  <si>
-    <t>A,Normal,0,Low,High,2,2,2,1,371.6558,6,</t>
-  </si>
-  <si>
-    <t>A,Normal,0,Low,High,2,2,2,2,364.7909,4,</t>
-  </si>
-  <si>
-    <t>A,Normal,0,Low,High,2,2,2,3,355.4603,9,</t>
-  </si>
-  <si>
-    <t>A,Double,45,Low,High,14,2,1,1,429,1946,1,</t>
-  </si>
-  <si>
-    <t>A,Double,45,Low,High,14,2,1,2,336.6185,5,</t>
-  </si>
-  <si>
-    <t>A,Double,45,Low,High,14,2,1,3,450.7949,1,</t>
-  </si>
-  <si>
-    <t>A,Double,45,High,High,16,2,3,1,728.011,17,</t>
-  </si>
-  <si>
-    <t>A,Double,45,High,High,16,2,3,2,436,6601,2,</t>
-  </si>
-  <si>
-    <t>A,Double,45,High,High,16,2,3,3,868.4515,1,</t>
-  </si>
-  <si>
-    <t>B,Double,45,High,High,32,2,4,1,422.8525,43,</t>
-  </si>
-  <si>
-    <t>B,Double,45,High,High,32,2,4,2,228.5607,2,</t>
-  </si>
-  <si>
-    <t>B,Double,45,High,High,32,2,4,3,100,32,</t>
-  </si>
-  <si>
-    <t>B,Double,45,High,Low,31,2,5,1,156.205,3,</t>
-  </si>
-  <si>
-    <t>B,Double,45,High,Low,31,2,5,2,107.7033,10,</t>
-  </si>
-  <si>
-    <t>B,Double,45,High,Low,31,2,5,3,112.2854,2,</t>
-  </si>
-  <si>
-    <t>B,Double,0,High,High,28,2,6,1,180,0,</t>
-  </si>
-  <si>
-    <t>B,Double,0,High,High,28,2,6,2,224.3212,1,</t>
-  </si>
-  <si>
-    <t>B,Double,0,High,High,28,2,6,3,136,0,</t>
-  </si>
-  <si>
-    <t>B,Normal,0,High,High,20,2,7,1,388.3298,45,</t>
-  </si>
-  <si>
-    <t>B,Normal,0,High,High,20,2,7,2,290.2413,70,</t>
-  </si>
-  <si>
-    <t>B,Normal,0,High,High,20,2,7,3,267.3724,40,</t>
-  </si>
-  <si>
-    <t>B,Normal,0,High,Low,19,2,8,1,275.768,20,</t>
-  </si>
-  <si>
-    <t>B,Normal,0,High,Low,19,2,8,2,306.6464,122,</t>
-  </si>
-  <si>
-    <t>B,Normal,0,High,Low,19,2,8,3,557.8387,60,</t>
-  </si>
-  <si>
-    <t>A,Double,0,Low,Low,9,3,1,1,411.3587,12,</t>
-  </si>
-  <si>
-    <t>A,Double,0,Low,Low,9,3,1,2,304.2367,20,</t>
-  </si>
-  <si>
-    <t>A,Double,0,Low,Low,9,3,1,3,500.144,2,</t>
-  </si>
-  <si>
-    <t>A,Normal,45,High,Low,7,3,2,1,417.229,6,</t>
-  </si>
-  <si>
-    <t>A,Normal,45,High,Low,7,3,2,2,510.1372,19,</t>
-  </si>
-  <si>
-    <t>A,Normal,45,High,Low,7,3,2,3,181.593,7,</t>
-  </si>
-  <si>
-    <t>A,Normal,0,High,High,4,3,3,1,620.967,15,</t>
-  </si>
-  <si>
-    <t>A,Normal,0,High,High,4,3,3,2,603.1385,17,</t>
-  </si>
-  <si>
-    <t>A,Normal,0,High,High,4,3,3,3,528,0,</t>
-  </si>
-  <si>
-    <t>B,Double,0,Low,High,26,3,4,1,178.8854,6,</t>
-  </si>
-  <si>
-    <t>B,Double,0,Low,High,26,3,4,2,307.8701,20,</t>
-  </si>
-  <si>
-    <t>B,Double,0,Low,High,26,3,4,3,203,8431,10,</t>
-  </si>
-  <si>
-    <t>A,Double,45,Low,Low,13,3,5,1,407.8039,10,</t>
-  </si>
-  <si>
-    <t>A,Double,45,Low,Low,13,3,5,2,431.7407,34,</t>
-  </si>
-  <si>
-    <t>A,Double,45,Low,Low,13,3,5,3,438.3606,14,</t>
-  </si>
-  <si>
-    <t>B,Double,0,Low,Low,25,3,6,1,140.684,8,</t>
-  </si>
-  <si>
-    <t>B,Double,0,Low,Low,25,3,6,2,180.7097,3,</t>
-  </si>
-  <si>
-    <t>B,Double,0,Low,Low,25,3,6,3,183.5211,10,</t>
-  </si>
-  <si>
-    <t>B,Normal,0,Low,High,18,3,7,2,40,43,</t>
-  </si>
-  <si>
-    <t>B,Normal,0,Low,High,18,3,7,1,265.9325,4,</t>
-  </si>
-  <si>
-    <t>B,Normal,0,Low,High,18,3,7,3,571.4963,30,</t>
-  </si>
-  <si>
-    <t>A,Normal,45,Low,Low,5,3,8,1,397.4516,18,</t>
-  </si>
-  <si>
-    <t>A,Normal,45,Low,Low,5,3,8,2,436.5684,5,</t>
-  </si>
-  <si>
-    <t>A,Normal,45,Low,Low,5,3,8,3,408,14,</t>
-  </si>
-  <si>
-    <t>A,Normal,45,High,High,8,4,1,1,345.1377,30,</t>
-  </si>
-  <si>
-    <t>A,Normal,45,High,High,8,4,1,2,604.4369,5,</t>
-  </si>
-  <si>
-    <t>A,Normal,45,High,High,8,4,1,3,649.5537,20,</t>
-  </si>
-  <si>
-    <t>A,Normal,0,Low,Low,1,4,2,1,352.9306,11,</t>
-  </si>
-  <si>
-    <t>A,Normal,0,Low,Low,1,4,2,2,299.8133,6,</t>
-  </si>
-  <si>
-    <t>A,Normal,0,Low,Low,1,4,2,3,302.7606,11,</t>
-  </si>
-  <si>
-    <t>B,Normal,45,High,High,24,4,3,1,800.7696,17,</t>
-  </si>
-  <si>
-    <t>B,Normal,45,High,High,24,4,3,2,300,90,</t>
-  </si>
-  <si>
-    <t>B,Normal,45,High,High,24,4,3,3,761.1045,103,</t>
-  </si>
-  <si>
-    <t>B,Normal,45,Low,Low,21,4,4,1,526.9383,4,</t>
-  </si>
-  <si>
-    <t>B,Normal,45,Low,Low,21,4,4,2,45.60702,43,</t>
-  </si>
-  <si>
-    <t>B,Normal,45,Low,Low,21,4,4,3,54.27128,160,</t>
-  </si>
-  <si>
-    <t>A,Normal,45,Low,High,6,4,5,1,570.5436,12,</t>
-  </si>
-  <si>
-    <t>A,Normal,45,Low,High,6,4,5,2,504.3967,1,</t>
-  </si>
-  <si>
-    <t>A,Normal,45,Low,High,6,4,5,3,420.7612,29,</t>
-  </si>
-  <si>
-    <t>A,Double,0,Low,High,10,4,6,1,308.4153,4,</t>
-  </si>
-  <si>
-    <t>A,Double,0,Low,High,10,4,6,2,298.1812,4,</t>
-  </si>
-  <si>
-    <t>A,Double,0,Low,High,10,4,6,3,219.6725,6,</t>
-  </si>
-  <si>
-    <t>B,Double,45,Low,High,30,4,7,1,220.0364,0,</t>
-  </si>
-  <si>
-    <t>B,Double,45,Low,High,30,4,7,2,290.8745,15,</t>
-  </si>
-  <si>
-    <t>B,Double,45,Low,High,30,4,7,3,252.6025,11,</t>
-  </si>
-  <si>
-    <t>B,Normal,45,Low,High,22,4,8,1,251.7459,58,</t>
-  </si>
-  <si>
-    <t>B,Normal,45,Low,High,22,4,8,2,518.521,28,</t>
-  </si>
-  <si>
-    <t>B,Normal,45,Low,High,22,4,8,3,350.6337,13,</t>
-  </si>
-  <si>
-    <t>A,Double,45,High,Low,15,1,2,1,361,9,</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+  <si>
+    <t>A,Double,0,High,Low,11,1,5,1,356.2022,33.0,nan</t>
+  </si>
+  <si>
+    <t>A,Double,0,High,Low,11,1,5,2,488.2622,12.0,nan</t>
+  </si>
+  <si>
+    <t>A,Double,0,High,Low,11,1,5,3,379.0514,6.0,nan</t>
+  </si>
+  <si>
+    <t>A,Double,0,Low,High,10,1,6,1,308.4153,4.0,nan</t>
+  </si>
+  <si>
+    <t>A,Double,0,Low,High,10,1,6,2,298.1812,4.0,nan</t>
+  </si>
+  <si>
+    <t>A,Double,0,Low,High,10,1,6,3,219.6725,6.0,nan</t>
+  </si>
+  <si>
+    <t>A,Normal,45,High,High,8,1,1,1,345.1377,30.0,nan</t>
+  </si>
+  <si>
+    <t>A,Normal,45,High,High,8,1,1,2,604.4369,5.0,nan</t>
+  </si>
+  <si>
+    <t>A,Normal,45,High,High,8,1,1,3,649.5537,20.0,nan</t>
+  </si>
+  <si>
+    <t>A,Normal,45,Low,Low,5,1,8,1,397.4516,18.0,nan</t>
+  </si>
+  <si>
+    <t>A,Normal,45,Low,Low,5,1,8,2,436.5684,5.0,nan</t>
+  </si>
+  <si>
+    <t>A,Normal,45,Low,Low,5,1,8,3,408.0,14.0,nan</t>
+  </si>
+  <si>
+    <t>B,Double,45,High,High,32,1,4,1,422.8525,43.0,nan</t>
+  </si>
+  <si>
+    <t>B,Double,45,High,High,32,1,4,2,228.5607,2.0,nan</t>
+  </si>
+  <si>
+    <t>B,Double,45,High,High,32,1,4,3,100.0,32.0,nan</t>
+  </si>
+  <si>
+    <t>B,Double,45,Low,Low,29,1,8,1,169.7999,8.0,nan</t>
+  </si>
+  <si>
+    <t>B,Double,45,Low,Low,29,1,8,2,112.0714,2.0,nan</t>
+  </si>
+  <si>
+    <t>B,Double,45,Low,Low,29,1,8,3,101.1929,10.0,nan</t>
+  </si>
+  <si>
+    <t>B,Normal,0,High,Low,19,1,8,1,275.768,20.0,nan</t>
+  </si>
+  <si>
+    <t>B,Normal,0,High,Low,19,1,8,2,306.6464,122.0,nan</t>
+  </si>
+  <si>
+    <t>B,Normal,0,High,Low,19,1,8,3,557.8387,60.0,nan</t>
+  </si>
+  <si>
+    <t>B,Normal,0,Low,High,18,1,7,1,265.9325,4.0,nan</t>
+  </si>
+  <si>
+    <t>B,Normal,0,Low,High,18,1,7,2,40.0,43.0,nan</t>
+  </si>
+  <si>
+    <t>B,Normal,0,Low,High,18,1,7,3,571.4963,30.0,nan</t>
+  </si>
+  <si>
+    <t>A,Double,0,High,High,12,2,3,1,529.0293,9.0,nan</t>
+  </si>
+  <si>
+    <t>A,Double,0,High,High,12,2,3,2,543.720591,20.0,nan</t>
+  </si>
+  <si>
+    <t>A,Double,0,High,High,12,2,3,3,520.5689,24.0,nan</t>
+  </si>
+  <si>
+    <t>A,Double,0,Low,Low,9,2,1,1,411.3587,12.0,nan</t>
+  </si>
+  <si>
+    <t>A,Double,0,Low,Low,9,2,1,2,304.2367,20.0,nan</t>
+  </si>
+  <si>
+    <t>A,Double,0,Low,Low,9,2,1,3,500.144,2.0,nan</t>
+  </si>
+  <si>
+    <t>A,Normal,45,High,Low,7,2,2,1,417.229,6.0,nan</t>
+  </si>
+  <si>
+    <t>A,Normal,45,High,Low,7,2,2,2,510.1372,19.0,nan</t>
+  </si>
+  <si>
+    <t>A,Normal,45,High,Low,7,2,2,3,181.593,7.0,nan</t>
+  </si>
+  <si>
+    <t>A,Normal,45,Low,High,6,2,5,1,570.5436,12.0,nan</t>
+  </si>
+  <si>
+    <t>A,Normal,45,Low,High,6,2,5,2,504.3967,1.0,nan</t>
+  </si>
+  <si>
+    <t>A,Normal,45,Low,High,6,2,5,3,420.7612,29.0,nan</t>
+  </si>
+  <si>
+    <t>B,Double,45,High,Low,31,2,5,1,156.205,3.0,nan</t>
+  </si>
+  <si>
+    <t>B,Double,45,High,Low,31,2,5,2,107.7033,10.0,nan</t>
+  </si>
+  <si>
+    <t>B,Double,45,High,Low,31,2,5,3,112.2854,2.0,nan</t>
+  </si>
+  <si>
+    <t>B,Double,45,Low,High,30,2,7,1,220.0364,0.0,nan</t>
+  </si>
+  <si>
+    <t>B,Double,45,Low,High,30,2,7,2,290.8745,15.0,nan</t>
+  </si>
+  <si>
+    <t>B,Double,45,Low,High,30,2,7,3,252.6025,11.0,nan</t>
+  </si>
+  <si>
+    <t>B,Normal,0,High,High,20,2,7,1,388.3298,45.0,nan</t>
+  </si>
+  <si>
+    <t>B,Normal,0,High,High,20,2,7,2,290.2413,70.0,nan</t>
+  </si>
+  <si>
+    <t>B,Normal,0,High,High,20,2,7,3,267.3724,40.0,nan</t>
+  </si>
+  <si>
+    <t>B,Normal,0,Low,Low,17,2,6,1,260.2768,30.0,nan</t>
+  </si>
+  <si>
+    <t>B,Normal,0,Low,Low,17,2,6,2,229.0581,58.0,nan</t>
+  </si>
+  <si>
+    <t>B,Normal,0,Low,Low,17,2,6,3,318.8479,4.0,nan</t>
+  </si>
+  <si>
+    <t>A,Double,45,High,High,16,3,3,1,728.011,17.0,nan</t>
+  </si>
+  <si>
+    <t>A,Double,45,High,High,16,3,3,2,436.0,6601.0,2.0</t>
+  </si>
+  <si>
+    <t>A,Double,45,High,High,16,3,3,3,868.4515,1.0,nan</t>
+  </si>
+  <si>
+    <t>A,Double,45,Low,Low,13,3,5,1,407.8039,10.0,nan</t>
+  </si>
+  <si>
+    <t>A,Double,45,Low,Low,13,3,5,2,431.7407,34.0,nan</t>
+  </si>
+  <si>
+    <t>A,Double,45,Low,Low,13,3,5,3,438.3606,14.0,nan</t>
+  </si>
+  <si>
+    <t>A,Normal,0,High,Low,3,3,7,1,360.1111,9.0,nan</t>
+  </si>
+  <si>
+    <t>A,Normal,0,High,Low,3,3,7,2,561.7259,3.0,nan</t>
+  </si>
+  <si>
+    <t>A,Normal,0,High,Low,3,3,7,3,402.6313,16.0,nan</t>
+  </si>
+  <si>
+    <t>A,Normal,0,Low,High,2,3,2,1,371.6558,6.0,nan</t>
+  </si>
+  <si>
+    <t>A,Normal,0,Low,High,2,3,2,2,364.7909,4.0,nan</t>
+  </si>
+  <si>
+    <t>A,Normal,0,Low,High,2,3,2,3,355.4603,9.0,nan</t>
+  </si>
+  <si>
+    <t>B,Double,0,High,Low,27,3,4,1,304.4208,2.0,nan</t>
+  </si>
+  <si>
+    <t>B,Double,0,High,Low,27,3,4,2,164.1463,30.0,nan</t>
+  </si>
+  <si>
+    <t>B,Double,0,High,Low,27,3,4,3,124.0645,16.0,nan</t>
+  </si>
+  <si>
+    <t>B,Double,0,Low,High,26,3,4,1,178.8854,6.0,nan</t>
+  </si>
+  <si>
+    <t>B,Double,0,Low,High,26,3,4,2,307.8701,20.0,nan</t>
+  </si>
+  <si>
+    <t>B,Double,0,Low,High,26,3,4,3,203.0,8431.0,10.0</t>
+  </si>
+  <si>
+    <t>B,Normal,45,High,High,24,3,3,1,800.7696,17.0,nan</t>
+  </si>
+  <si>
+    <t>B,Normal,45,High,High,24,3,3,2,300.0,90.0,nan</t>
+  </si>
+  <si>
+    <t>B,Normal,45,High,High,24,3,3,3,761.1045,103.0,nan</t>
+  </si>
+  <si>
+    <t>B,Normal,45,Low,Low,21,3,4,1,526.9383,4.0,nan</t>
+  </si>
+  <si>
+    <t>B,Normal,45,Low,Low,21,3,4,2,45.60702,43.0,nan</t>
+  </si>
+  <si>
+    <t>B,Normal,45,Low,Low,21,3,4,3,54.27128,160.0,nan</t>
+  </si>
+  <si>
+    <t>A,Double,45,High,Low,15,4,2,1,361.0,9.0,nan</t>
+  </si>
+  <si>
+    <t>A,Double,45,High,Low,15,4,2,2,509.902,12.0,nan</t>
+  </si>
+  <si>
+    <t>A,Double,45,High,Low,15,4,2,3,241.197,3.0,nan</t>
+  </si>
+  <si>
+    <t>A,Double,45,Low,High,14,4,1,1,429.0,1946.0,1.0</t>
+  </si>
+  <si>
+    <t>A,Double,45,Low,High,14,4,1,2,336.6185,5.0,nan</t>
+  </si>
+  <si>
+    <t>A,Double,45,Low,High,14,4,1,3,450.7949,1.0,nan</t>
+  </si>
+  <si>
+    <t>A,Normal,0,High,High,4,4,3,1,620.967,15.0,nan</t>
+  </si>
+  <si>
+    <t>A,Normal,0,High,High,4,4,3,2,603.1385,17.0,nan</t>
+  </si>
+  <si>
+    <t>A,Normal,0,High,High,4,4,3,3,528.0,0.0,nan</t>
+  </si>
+  <si>
+    <t>A,Normal,0,Low,Low,1,4,2,1,352.9306,11.0,nan</t>
+  </si>
+  <si>
+    <t>A,Normal,0,Low,Low,1,4,2,2,299.8133,6.0,nan</t>
+  </si>
+  <si>
+    <t>A,Normal,0,Low,Low,1,4,2,3,302.7606,11.0,nan</t>
+  </si>
+  <si>
+    <t>B,Double,0,High,High,28,4,6,1,180.0,0.0,nan</t>
+  </si>
+  <si>
+    <t>B,Double,0,High,High,28,4,6,2,224.3212,1.0,nan</t>
+  </si>
+  <si>
+    <t>B,Double,0,High,High,28,4,6,3,136.0,0.0,nan</t>
+  </si>
+  <si>
+    <t>B,Double,0,Low,Low,25,4,6,1,140.684,8.0,nan</t>
+  </si>
+  <si>
+    <t>B,Double,0,Low,Low,25,4,6,2,180.7097,3.0,nan</t>
+  </si>
+  <si>
+    <t>B,Double,0,Low,Low,25,4,6,3,183.5211,10.0,nan</t>
+  </si>
+  <si>
+    <t>B,Normal,45,High,Low,23,4,1,1,442.0,119.0,nan</t>
+  </si>
+  <si>
+    <t>B,Normal,45,High,Low,23,4,1,2,171.76,160.0,nan</t>
+  </si>
+  <si>
+    <t>B,Normal,45,High,Low,23,4,1,3,395.82,116.0,nan</t>
+  </si>
+  <si>
+    <t>B,Normal,45,Low,High,22,4,8,1,251.7459,58.0,nan</t>
+  </si>
+  <si>
+    <t>B,Normal,45,Low,High,22,4,8,2,518.521,28.0,nan</t>
+  </si>
+  <si>
+    <t>B,Normal,45,Low,High,22,4,8,3,350.6337,13.0,nan</t>
   </si>
   <si>
     <t>Plane_Type,Mass_Level,Launch_Angle_deg,Launch_Height,Throw_Speed,Config_ID,Day,Order_in_Day,Replicate,Radial_Distance_cm,Trajectory_Angle_deg,Notes</t>
@@ -378,7 +353,7 @@
     <cellStyle name="Normala" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -391,9 +366,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -401,44 +376,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -468,12 +443,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -503,7 +478,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -512,665 +487,662 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:A97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>89</v>
       </c>
-      <c r="G89">
-        <v>7.8</v>
-      </c>
-      <c r="H89">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>91</v>
       </c>
-      <c r="G91">
-        <f>SQRT((G89*40)^2+(H89*40)^2)</f>
-        <v>350.63371201297804</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>92</v>
       </c>
-      <c r="G92">
-        <f>270-1</f>
-        <v>269</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
